--- a/biology/Biologie cellulaire et moléculaire/Fibres_préganglionnaires/Fibres_préganglionnaires.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Fibres_préganglionnaires/Fibres_préganglionnaires.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fibres_pr%C3%A9ganglionnaires</t>
+          <t>Fibres_préganglionnaires</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fibres nerveuses préganglionnaires sont des fibres nerveuses appartenant au système nerveux végétatif qui sont en amont des ganglions végétatifs. Les synapses qu'elles font dans les ganglions sont toujours cholinergiques (tandis que les fibres post ganglionnaires orthosympathiques utilisent la noradrénaline comme neurotransmetteur) et leurs neurites sont faiblement myélinisés (type B selon la classification d'Erlanger et Gasser). Cependant certaines de leurs caractéristiques varient selon qu'elles sont de nature orthosympathique ou parasympathique. 
 Les fibres sympathiques préganglionnaires ont tendance à être plus courtes car elles font majoritairement synapse dans les ganglions de la chaine latéro vertébrale. Certaines fibres sympathiques préganglionnaires se prolongent néanmoins jusqu'aux ganglions pré viscéraux pour y faire synapse comme les fibres parasympathiques.
